--- a/Results/Profit SBAV WriteUp R50.xlsx
+++ b/Results/Profit SBAV WriteUp R50.xlsx
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="F5">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="F6">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="F7">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="F9">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="F11">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="F12">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="F13">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="F14">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="F15">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="F16">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="F17">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F18">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="F19">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="F20">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="F21">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="F22">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="F23">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="F24">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="F25">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="F26">
-        <v>13510.9750024217</v>
+        <v>15970.6750024217</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="F27">
-        <v>13011.3192272678</v>
+        <v>15471.0192272678</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="F28">
-        <v>12076.8980373698</v>
+        <v>14536.5980373698</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="F29">
-        <v>14123.1364887014</v>
+        <v>16582.8364887014</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="F30">
-        <v>13756.5059523872</v>
+        <v>16216.2059523872</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="F31">
-        <v>13389.8754160731</v>
+        <v>15849.5754160731</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F32">
-        <v>13384.1298024217</v>
+        <v>15843.8298024217</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>12884.4740272678</v>
+        <v>15344.1740272678</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>11950.0528373698</v>
+        <v>14409.7528373698</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="F35">
-        <v>13979.9812887014</v>
+        <v>16439.6812887014</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="F36">
-        <v>13613.3507523872</v>
+        <v>16073.0507523872</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="F37">
-        <v>13246.7202160731</v>
+        <v>15706.4202160731</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="F38">
-        <v>13190.1340024217</v>
+        <v>15649.8340024217</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="F39">
-        <v>12690.4782272678</v>
+        <v>15150.1782272678</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="F40">
-        <v>11756.0570373698</v>
+        <v>14215.7570373698</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="F41">
-        <v>13689.5700887014</v>
+        <v>16149.2700887014</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="F42">
-        <v>13322.9395523872</v>
+        <v>15782.6395523872</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="F43">
-        <v>12956.3090160731</v>
+        <v>15416.0090160731</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="F44">
-        <v>13556.8760024217</v>
+        <v>16016.5760024217</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="F45">
-        <v>13057.2202272678</v>
+        <v>15516.9202272678</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F46">
-        <v>12122.7990373698</v>
+        <v>14582.4990373698</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="F47">
-        <v>14211.4900887014</v>
+        <v>16671.1900887014</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="F48">
-        <v>13844.8595523872</v>
+        <v>16304.5595523872</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="F49">
-        <v>13478.2290160731</v>
+        <v>15937.9290160731</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="F50">
-        <v>16934.0490323172</v>
+        <v>19393.7490323172</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="F51">
-        <v>15768.1855569583</v>
+        <v>18227.8855569583</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="F52">
-        <v>13587.8694471961</v>
+        <v>16047.5694471961</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="F53">
-        <v>18364.2277003033</v>
+        <v>20823.9277003033</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="F54">
-        <v>17508.7564489035</v>
+        <v>19968.4564489035</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="F55">
-        <v>16653.2851975038</v>
+        <v>19112.9851975038</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="F56">
-        <v>16638.7914323172</v>
+        <v>19098.4914323172</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="F57">
-        <v>15472.9279569583</v>
+        <v>17932.6279569583</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="F58">
-        <v>13292.6118471961</v>
+        <v>15752.3118471961</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="F59">
-        <v>18030.2921003033</v>
+        <v>20489.9921003033</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="F60">
-        <v>17174.8208489035</v>
+        <v>19634.5208489035</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="F61">
-        <v>16319.3495975038</v>
+        <v>18779.0495975038</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="F62">
-        <v>16186.3520323172</v>
+        <v>18646.0520323172</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="F63">
-        <v>15020.4885569583</v>
+        <v>17480.1885569583</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="F64">
-        <v>12840.1724471962</v>
+        <v>15299.8724471962</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="F65">
-        <v>17352.8679003033</v>
+        <v>19812.5679003033</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="F66">
-        <v>16497.3966489035</v>
+        <v>18957.0966489035</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="F67">
-        <v>15641.9253975038</v>
+        <v>18101.6253975038</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="F68">
-        <v>17041.5086323172</v>
+        <v>19501.2086323172</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="F69">
-        <v>15875.6451569583</v>
+        <v>18335.3451569583</v>
       </c>
       <c r="G69">
         <v>4</v>
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="F70">
-        <v>13695.3290471961</v>
+        <v>16155.0290471961</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>18570.3861003033</v>
+        <v>21030.0861003033</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -2339,7 +2339,7 @@
         </is>
       </c>
       <c r="F72">
-        <v>17714.9148489035</v>
+        <v>20174.6148489035</v>
       </c>
       <c r="G72">
         <v>4</v>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="F73">
-        <v>16859.4435975038</v>
+        <v>19319.1435975038</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="F74">
-        <v>20358.8938622128</v>
+        <v>22818.5938622128</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="F75">
-        <v>18526.8226866488</v>
+        <v>20986.5226866488</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="F76">
-        <v>15100.6116570225</v>
+        <v>17560.3116570225</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="F77">
-        <v>22605.9247119052</v>
+        <v>25065.6247119052</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="F78">
-        <v>21261.6127454199</v>
+        <v>23721.3127454199</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="F79">
-        <v>19917.3007789345</v>
+        <v>22377.0007789345</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F80">
-        <v>19894.8976622128</v>
+        <v>22354.5976622128</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="F81">
-        <v>18062.8264866488</v>
+        <v>20522.5264866488</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="F82">
-        <v>14636.6154570225</v>
+        <v>17096.3154570225</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="F83">
-        <v>22081.1155119052</v>
+        <v>24540.8155119052</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="F84">
-        <v>20736.8035454199</v>
+        <v>23196.5035454199</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="F85">
-        <v>19392.4915789345</v>
+        <v>21852.1915789345</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="F86">
-        <v>19183.9680622128</v>
+        <v>21643.6680622128</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="F87">
-        <v>17351.8968866488</v>
+        <v>19811.5968866488</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="F88">
-        <v>13925.6858570225</v>
+        <v>16385.3858570225</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="F89">
-        <v>21016.6783119052</v>
+        <v>23476.3783119052</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="F90">
-        <v>19672.3663454199</v>
+        <v>22132.0663454199</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="F91">
-        <v>18328.0543789345</v>
+        <v>20787.7543789345</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="F92">
-        <v>20527.7256622128</v>
+        <v>22987.4256622128</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="F93">
-        <v>18695.6544866488</v>
+        <v>21155.3544866488</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="F94">
-        <v>15269.4434570225</v>
+        <v>17729.1434570225</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="F95">
-        <v>22929.8879119052</v>
+        <v>25389.5879119052</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="F96">
-        <v>21585.5759454199</v>
+        <v>24045.2759454199</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="F97">
-        <v>20241.2639789345</v>
+        <v>22700.9639789345</v>
       </c>
       <c r="G97">
         <v>4</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="F98">
-        <v>23783.6920921084</v>
+        <v>26243.3920921084</v>
       </c>
       <c r="G98">
         <v>3</v>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="F99">
-        <v>21285.4132163392</v>
+        <v>23745.1132163392</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="F100">
-        <v>16613.3072668489</v>
+        <v>19073.0072668489</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="F101">
-        <v>26847.575123507</v>
+        <v>29307.275123507</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="F102">
-        <v>25014.4224419362</v>
+        <v>27474.1224419362</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="F103">
-        <v>23181.2697603653</v>
+        <v>25640.9697603653</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="F104">
-        <v>23150.9572921084</v>
+        <v>25610.6572921084</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="F105">
-        <v>20652.6784163392</v>
+        <v>23112.3784163392</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="F106">
-        <v>15980.5724668489</v>
+        <v>18440.2724668489</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="F107">
-        <v>26131.985523507</v>
+        <v>28591.685523507</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="F108">
-        <v>24298.8328419362</v>
+        <v>26758.5328419362</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="F109">
-        <v>22465.6801603653</v>
+        <v>24925.3801603653</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="F110">
-        <v>22181.4908921084</v>
+        <v>24641.1908921084</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="F111">
-        <v>19683.2120163392</v>
+        <v>22142.9120163392</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="F112">
-        <v>15011.1060668489</v>
+        <v>17470.8060668489</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="F113">
-        <v>24680.488723507</v>
+        <v>27140.188723507</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="F114">
-        <v>22847.3360419362</v>
+        <v>25307.0360419362</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="F115">
-        <v>21014.1833603653</v>
+        <v>23473.8833603653</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="F116">
-        <v>24013.8960921084</v>
+        <v>26473.5960921084</v>
       </c>
       <c r="G116">
         <v>4</v>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="F117">
-        <v>21515.6172163392</v>
+        <v>23975.3172163392</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="F118">
-        <v>16843.5112668489</v>
+        <v>19303.2112668489</v>
       </c>
       <c r="G118">
         <v>4</v>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="F119">
-        <v>27289.343123507</v>
+        <v>29749.043123507</v>
       </c>
       <c r="G119">
         <v>4</v>
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="F120">
-        <v>25456.1904419362</v>
+        <v>27915.8904419362</v>
       </c>
       <c r="G120">
         <v>4</v>
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="F121">
-        <v>23623.0377603653</v>
+        <v>26082.7377603653</v>
       </c>
       <c r="G121">
         <v>4</v>

--- a/Results/Profit SBAV WriteUp R50.xlsx
+++ b/Results/Profit SBAV WriteUp R50.xlsx
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="F5">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="F6">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="F7">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="F9">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="F11">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="F12">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="F13">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="F14">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="F15">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="F16">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="F17">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F18">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="F19">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="F20">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="F21">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="F22">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="F23">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="F24">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="F25">
-        <v>13400.65503</v>
+        <v>4175.65503</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="F26">
-        <v>15970.6750024217</v>
+        <v>6745.67500242168</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="F27">
-        <v>15471.0192272678</v>
+        <v>6246.01922726785</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="F28">
-        <v>14536.5980373698</v>
+        <v>5311.59803736977</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="F29">
-        <v>16582.8364887014</v>
+        <v>7357.83648870141</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="F30">
-        <v>16216.2059523872</v>
+        <v>6991.20595238723</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="F31">
-        <v>15849.5754160731</v>
+        <v>6624.57541607306</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F32">
-        <v>15843.8298024217</v>
+        <v>6618.82980242168</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>15344.1740272678</v>
+        <v>6119.17402726785</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>14409.7528373698</v>
+        <v>5184.75283736978</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="F35">
-        <v>16439.6812887014</v>
+        <v>7214.6812887014</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="F36">
-        <v>16073.0507523872</v>
+        <v>6848.05075238723</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="F37">
-        <v>15706.4202160731</v>
+        <v>6481.42021607306</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="F38">
-        <v>15649.8340024217</v>
+        <v>6424.83400242168</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="F39">
-        <v>15150.1782272678</v>
+        <v>5925.17822726785</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="F40">
-        <v>14215.7570373698</v>
+        <v>4990.75703736977</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="F41">
-        <v>16149.2700887014</v>
+        <v>6924.27008870141</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="F42">
-        <v>15782.6395523872</v>
+        <v>6557.63955238723</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="F43">
-        <v>15416.0090160731</v>
+        <v>6191.00901607306</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="F44">
-        <v>16016.5760024217</v>
+        <v>6791.57600242168</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="F45">
-        <v>15516.9202272678</v>
+        <v>6291.92022726785</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F46">
-        <v>14582.4990373698</v>
+        <v>5357.49903736977</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="F47">
-        <v>16671.1900887014</v>
+        <v>7446.19008870141</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="F48">
-        <v>16304.5595523872</v>
+        <v>7079.55955238723</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="F49">
-        <v>15937.9290160731</v>
+        <v>6712.92901607306</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="F50">
-        <v>19393.7490323172</v>
+        <v>10168.7490323172</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="F51">
-        <v>18227.8855569583</v>
+        <v>9002.88555695831</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="F52">
-        <v>16047.5694471961</v>
+        <v>6822.56944719615</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="F53">
-        <v>20823.9277003033</v>
+        <v>11598.9277003033</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="F54">
-        <v>19968.4564489035</v>
+        <v>10743.4564489035</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="F55">
-        <v>19112.9851975038</v>
+        <v>9887.9851975038</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="F56">
-        <v>19098.4914323172</v>
+        <v>9873.49143231725</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="F57">
-        <v>17932.6279569583</v>
+        <v>8707.62795695831</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="F58">
-        <v>15752.3118471961</v>
+        <v>6527.31184719615</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="F59">
-        <v>20489.9921003033</v>
+        <v>11264.9921003033</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="F60">
-        <v>19634.5208489035</v>
+        <v>10409.5208489035</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="F61">
-        <v>18779.0495975038</v>
+        <v>9554.0495975038</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="F62">
-        <v>18646.0520323172</v>
+        <v>9421.05203231725</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="F63">
-        <v>17480.1885569583</v>
+        <v>8255.18855695831</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="F64">
-        <v>15299.8724471962</v>
+        <v>6074.87244719615</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="F65">
-        <v>19812.5679003033</v>
+        <v>10587.5679003033</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="F66">
-        <v>18957.0966489035</v>
+        <v>9732.09664890354</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="F67">
-        <v>18101.6253975038</v>
+        <v>8876.6253975038</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="F68">
-        <v>19501.2086323172</v>
+        <v>10276.2086323172</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="F69">
-        <v>18335.3451569583</v>
+        <v>9110.34515695831</v>
       </c>
       <c r="G69">
         <v>4</v>
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="F70">
-        <v>16155.0290471961</v>
+        <v>6930.02904719615</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>21030.0861003033</v>
+        <v>11805.0861003033</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -2339,7 +2339,7 @@
         </is>
       </c>
       <c r="F72">
-        <v>20174.6148489035</v>
+        <v>10949.6148489035</v>
       </c>
       <c r="G72">
         <v>4</v>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="F73">
-        <v>19319.1435975038</v>
+        <v>10094.1435975038</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="F74">
-        <v>22818.5938622128</v>
+        <v>13593.5938622128</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="F75">
-        <v>20986.5226866488</v>
+        <v>11761.5226866488</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="F76">
-        <v>17560.3116570225</v>
+        <v>8335.31165702251</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="F77">
-        <v>25065.6247119052</v>
+        <v>15840.6247119052</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="F78">
-        <v>23721.3127454199</v>
+        <v>14496.3127454199</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="F79">
-        <v>22377.0007789345</v>
+        <v>13152.0007789345</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F80">
-        <v>22354.5976622128</v>
+        <v>13129.5976622128</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="F81">
-        <v>20522.5264866488</v>
+        <v>11297.5264866488</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="F82">
-        <v>17096.3154570225</v>
+        <v>7871.31545702251</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="F83">
-        <v>24540.8155119052</v>
+        <v>15315.8155119052</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="F84">
-        <v>23196.5035454199</v>
+        <v>13971.5035454198</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="F85">
-        <v>21852.1915789345</v>
+        <v>12627.1915789345</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="F86">
-        <v>21643.6680622128</v>
+        <v>12418.6680622128</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="F87">
-        <v>19811.5968866488</v>
+        <v>10586.5968866488</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="F88">
-        <v>16385.3858570225</v>
+        <v>7160.38585702251</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="F89">
-        <v>23476.3783119052</v>
+        <v>14251.3783119052</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="F90">
-        <v>22132.0663454199</v>
+        <v>12907.0663454198</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="F91">
-        <v>20787.7543789345</v>
+        <v>11562.7543789345</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="F92">
-        <v>22987.4256622128</v>
+        <v>13762.4256622128</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="F93">
-        <v>21155.3544866488</v>
+        <v>11930.3544866488</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="F94">
-        <v>17729.1434570225</v>
+        <v>8504.14345702251</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="F95">
-        <v>25389.5879119052</v>
+        <v>16164.5879119052</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="F96">
-        <v>24045.2759454199</v>
+        <v>14820.2759454199</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="F97">
-        <v>22700.9639789345</v>
+        <v>13475.9639789345</v>
       </c>
       <c r="G97">
         <v>4</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="F98">
-        <v>26243.3920921084</v>
+        <v>17018.3920921084</v>
       </c>
       <c r="G98">
         <v>3</v>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="F99">
-        <v>23745.1132163392</v>
+        <v>14520.1132163392</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="F100">
-        <v>19073.0072668489</v>
+        <v>9848.00726684887</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="F101">
-        <v>29307.275123507</v>
+        <v>20082.275123507</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="F102">
-        <v>27474.1224419362</v>
+        <v>18249.1224419362</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="F103">
-        <v>25640.9697603653</v>
+        <v>16415.9697603653</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="F104">
-        <v>25610.6572921084</v>
+        <v>16385.6572921084</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="F105">
-        <v>23112.3784163392</v>
+        <v>13887.3784163392</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="F106">
-        <v>18440.2724668489</v>
+        <v>9215.27246684886</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="F107">
-        <v>28591.685523507</v>
+        <v>19366.685523507</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="F108">
-        <v>26758.5328419362</v>
+        <v>17533.5328419362</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="F109">
-        <v>24925.3801603653</v>
+        <v>15700.3801603653</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="F110">
-        <v>24641.1908921084</v>
+        <v>15416.1908921084</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="F111">
-        <v>22142.9120163392</v>
+        <v>12917.9120163392</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="F112">
-        <v>17470.8060668489</v>
+        <v>8245.80606684887</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="F113">
-        <v>27140.188723507</v>
+        <v>17915.188723507</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="F114">
-        <v>25307.0360419362</v>
+        <v>16082.0360419362</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="F115">
-        <v>23473.8833603653</v>
+        <v>14248.8833603653</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="F116">
-        <v>26473.5960921084</v>
+        <v>17248.5960921084</v>
       </c>
       <c r="G116">
         <v>4</v>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="F117">
-        <v>23975.3172163392</v>
+        <v>14750.3172163392</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="F118">
-        <v>19303.2112668489</v>
+        <v>10078.2112668489</v>
       </c>
       <c r="G118">
         <v>4</v>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="F119">
-        <v>29749.043123507</v>
+        <v>20524.043123507</v>
       </c>
       <c r="G119">
         <v>4</v>
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="F120">
-        <v>27915.8904419362</v>
+        <v>18690.8904419362</v>
       </c>
       <c r="G120">
         <v>4</v>
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="F121">
-        <v>26082.7377603653</v>
+        <v>16857.7377603653</v>
       </c>
       <c r="G121">
         <v>4</v>
